--- a/Cuentas.xlsx
+++ b/Cuentas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Aplicación</t>
   </si>
@@ -36,10 +36,40 @@
     <t>arqfranciscoga@gmail.com</t>
   </si>
   <si>
-    <t>fga26021969</t>
-  </si>
-  <si>
     <t>correo</t>
+  </si>
+  <si>
+    <t>Fga26021969#</t>
+  </si>
+  <si>
+    <t>hosting</t>
+  </si>
+  <si>
+    <t>Zafra010203#</t>
+  </si>
+  <si>
+    <t>baseDatos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB_A72B95_kungio </t>
+  </si>
+  <si>
+    <t>DB_A72B95_kungio_admin</t>
+  </si>
+  <si>
+    <t>kungio15042021#ftp</t>
+  </si>
+  <si>
+    <t>ftp</t>
+  </si>
+  <si>
+    <t>FTP.SITE4NOW.NET</t>
+  </si>
+  <si>
+    <t>db/sitio</t>
+  </si>
+  <si>
+    <t>arqfranciscoga-002</t>
   </si>
 </sst>
 </file>
@@ -396,19 +426,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,32 +448,77 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Cuentas.xlsx
+++ b/Cuentas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Aplicación</t>
   </si>
@@ -51,32 +51,101 @@
     <t>baseDatos</t>
   </si>
   <si>
-    <t xml:space="preserve">DB_A72B95_kungio </t>
-  </si>
-  <si>
-    <t>DB_A72B95_kungio_admin</t>
-  </si>
-  <si>
-    <t>kungio15042021#ftp</t>
-  </si>
-  <si>
     <t>ftp</t>
   </si>
   <si>
-    <t>FTP.SITE4NOW.NET</t>
-  </si>
-  <si>
-    <t>db/sitio</t>
-  </si>
-  <si>
     <t>arqfranciscoga-002</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>DB_A72B95_drp2_admin</t>
+  </si>
+  <si>
+    <t>DB_A72B95_drp2</t>
+  </si>
+  <si>
+    <t>fga123456#</t>
+  </si>
+  <si>
+    <t>win5078.site4now.net</t>
+  </si>
+  <si>
+    <t>SQL5074.site4now.net</t>
+  </si>
+  <si>
+    <t>DB_A72B95_drp_admin</t>
+  </si>
+  <si>
+    <t>DB_A72B95_drp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        </t>
+  </si>
+  <si>
+    <t>SQL5052.site4now.net</t>
+  </si>
+  <si>
+    <t>dns: NS1.SITE4NOW.NET NS2.SITE4NOW.NET NS3.SITE4NOW.NET</t>
+  </si>
+  <si>
+    <t>correo :jorgerizoespinosa@yahoo.com</t>
+  </si>
+  <si>
+    <t>pin:6024</t>
+  </si>
+  <si>
+    <t>cliente:377351532</t>
+  </si>
+  <si>
+    <t>cuenta:giorgerizo</t>
+  </si>
+  <si>
+    <t>contraseña:Giorgio09</t>
+  </si>
+  <si>
+    <t>dominio</t>
+  </si>
+  <si>
+    <t>utel</t>
+  </si>
+  <si>
+    <t>arqfranciscoga@live.com</t>
+  </si>
+  <si>
+    <t>fga26021969</t>
+  </si>
+  <si>
+    <t>arqfranciscoga@lgmail.com</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>Oliens11fga</t>
+  </si>
+  <si>
+    <t>francisco</t>
+  </si>
+  <si>
+    <t>SQL5085.site4now.net</t>
+  </si>
+  <si>
+    <t>db_a72b95_geo</t>
+  </si>
+  <si>
+    <t>db_a72b95_geo_admin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +166,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1B1B1B"/>
+      <name val="Ebrima"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF464E5F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,10 +206,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -426,99 +519,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="39.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="24" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="E3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="G3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>15</v>
       </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>10296616</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>22669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="24" spans="3:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C24" s="5"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="F9" r:id="rId3"/>
+    <hyperlink ref="C12" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
 
